--- a/x-media/KAF8_Analogieverfahren_Average_2.xlsx
+++ b/x-media/KAF8_Analogieverfahren_Average_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d7a78281bf75485/siw/BOOT BWL/Block 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazyloop\Documents\GitHub\siw-bwl\x-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{0BB90FE9-A7CF-428C-9F9F-D3DC8DD549DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3D9F122-32EB-4B97-BFCA-F0FB6D3BDB62}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213790E5-4B0C-40D1-8EEB-DE98074942A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32325" yWindow="2745" windowWidth="31740" windowHeight="18450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33795" yWindow="1995" windowWidth="28185" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021FASYS T4 KAF 6.1_CSV" sheetId="1" r:id="rId1"/>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,7 +2010,8 @@
         <v>22.166666666666668</v>
       </c>
       <c r="E77" s="1">
-        <v>346</v>
+        <f t="shared" si="3"/>
+        <v>346.5</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -2032,7 +2033,8 @@
         <v>11.666666666666666</v>
       </c>
       <c r="E78" s="1">
-        <v>230</v>
+        <f t="shared" si="3"/>
+        <v>229.13333333333333</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2052,7 +2054,8 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>316</v>
+        <f t="shared" si="3"/>
+        <v>315.10000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2086,7 +2089,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C73" formula="1"/>
+    <ignoredError sqref="C73 C74:C80" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>